--- a/Code/Results/Cases/Case_11_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_11_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44307359118704</v>
+        <v>21.02686597630486</v>
       </c>
       <c r="C2">
-        <v>18.84945595138836</v>
+        <v>13.60097459576737</v>
       </c>
       <c r="D2">
-        <v>10.02066305241336</v>
+        <v>3.677842270525261</v>
       </c>
       <c r="E2">
-        <v>29.10526702065993</v>
+        <v>6.963352007132182</v>
       </c>
       <c r="F2">
-        <v>63.03962927701833</v>
+        <v>28.1166236313002</v>
       </c>
       <c r="G2">
-        <v>2.074527469938671</v>
+        <v>36.53671312860903</v>
       </c>
       <c r="H2">
-        <v>3.089966362669392</v>
+        <v>3.267455011586566</v>
       </c>
       <c r="I2">
-        <v>3.037267292020123</v>
+        <v>3.806237167599496</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.41287116145626</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.00147005062306</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.511182504892949</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.029453450751958</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.922793933791972</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.16826386188195</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.75403469952843</v>
+        <v>19.67443849636767</v>
       </c>
       <c r="C3">
-        <v>17.53033396951019</v>
+        <v>12.76689792477266</v>
       </c>
       <c r="D3">
-        <v>9.477274155190834</v>
+        <v>3.620838007827524</v>
       </c>
       <c r="E3">
-        <v>27.02775996347093</v>
+        <v>6.873653074776264</v>
       </c>
       <c r="F3">
-        <v>59.07048019432784</v>
+        <v>27.61176948358814</v>
       </c>
       <c r="G3">
-        <v>2.084514762941586</v>
+        <v>35.68129625960464</v>
       </c>
       <c r="H3">
-        <v>2.711583836633365</v>
+        <v>3.51450567909967</v>
       </c>
       <c r="I3">
-        <v>2.666704839883651</v>
+        <v>4.009649243583073</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.27799412320089</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.98072907151304</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.750933145224903</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.975477137847466</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.740187384913124</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.53540207688044</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.65952378285824</v>
+        <v>18.79588346295348</v>
       </c>
       <c r="C4">
-        <v>16.68690558818472</v>
+        <v>12.23044793856789</v>
       </c>
       <c r="D4">
-        <v>9.126601439550928</v>
+        <v>3.586127168409581</v>
       </c>
       <c r="E4">
-        <v>25.68821643124625</v>
+        <v>6.816919885376619</v>
       </c>
       <c r="F4">
-        <v>56.50830951348823</v>
+        <v>27.30411534862287</v>
       </c>
       <c r="G4">
-        <v>2.090765124095499</v>
+        <v>35.16100624133594</v>
       </c>
       <c r="H4">
-        <v>2.473648940128331</v>
+        <v>3.671334792428088</v>
       </c>
       <c r="I4">
-        <v>2.509508808433992</v>
+        <v>4.139506573187961</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.19508964244662</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.97137905364989</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.93892725471526</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.941074010858273</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.626484337746497</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.13172762974378</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19839618377675</v>
+        <v>18.42548857702544</v>
       </c>
       <c r="C5">
-        <v>16.35017261237931</v>
+        <v>12.01550732422639</v>
       </c>
       <c r="D5">
-        <v>8.962248306382884</v>
+        <v>3.573329606347384</v>
       </c>
       <c r="E5">
-        <v>25.1250067760214</v>
+        <v>6.792904869730067</v>
       </c>
       <c r="F5">
-        <v>55.35697436933109</v>
+        <v>27.16306705775124</v>
       </c>
       <c r="G5">
-        <v>2.093373239817404</v>
+        <v>34.92125135026823</v>
       </c>
       <c r="H5">
-        <v>2.374520949779008</v>
+        <v>3.736969619744874</v>
       </c>
       <c r="I5">
-        <v>2.613255113535315</v>
+        <v>4.196514844073705</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.15564050109213</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.95712885722548</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.025357396590785</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.926444920399096</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.581477665314674</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.96503337514679</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12034009970148</v>
+        <v>18.36289388123669</v>
       </c>
       <c r="C6">
-        <v>16.31276175098225</v>
+        <v>11.99139320209312</v>
       </c>
       <c r="D6">
-        <v>8.913715193426158</v>
+        <v>3.57277241958471</v>
       </c>
       <c r="E6">
-        <v>25.02928931015711</v>
+        <v>6.788322948333191</v>
       </c>
       <c r="F6">
-        <v>55.07122712887607</v>
+        <v>27.11968763302067</v>
       </c>
       <c r="G6">
-        <v>2.093843404499031</v>
+        <v>34.84586385243595</v>
       </c>
       <c r="H6">
-        <v>2.357148475066212</v>
+        <v>3.748447905711978</v>
       </c>
       <c r="I6">
-        <v>2.635588437125068</v>
+        <v>4.209673897422536</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.14217018979303</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.94105964254425</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.040288911020202</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.923649264598818</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.576048069110627</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.93890112286437</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.65169548959532</v>
+        <v>18.79002042558199</v>
       </c>
       <c r="C7">
-        <v>16.73292013436325</v>
+        <v>12.25181044201319</v>
       </c>
       <c r="D7">
-        <v>9.067926423508622</v>
+        <v>3.593919393443792</v>
       </c>
       <c r="E7">
-        <v>25.67736305216642</v>
+        <v>6.814654209258306</v>
       </c>
       <c r="F7">
-        <v>56.24481937174074</v>
+        <v>27.21787223981483</v>
       </c>
       <c r="G7">
-        <v>2.090896024981767</v>
+        <v>35.11173087702925</v>
       </c>
       <c r="H7">
-        <v>2.470075046960208</v>
+        <v>3.674390932192652</v>
       </c>
       <c r="I7">
-        <v>2.524493452909088</v>
+        <v>4.150635116420471</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.12420426194596</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.91664523462494</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.940053715285803</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.939395795532951</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.631602000134761</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.13458628082192</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.870143067299</v>
+        <v>20.56934391621703</v>
       </c>
       <c r="C8">
-        <v>18.46235242138411</v>
+        <v>13.33407531893826</v>
       </c>
       <c r="D8">
-        <v>9.765799130928215</v>
+        <v>3.67576499170942</v>
       </c>
       <c r="E8">
-        <v>28.39744764467337</v>
+        <v>6.929608255016466</v>
       </c>
       <c r="F8">
-        <v>61.38995501941691</v>
+        <v>27.77457649169602</v>
       </c>
       <c r="G8">
-        <v>2.078075537225312</v>
+        <v>36.28304766474947</v>
       </c>
       <c r="H8">
-        <v>2.957617360055809</v>
+        <v>3.355843002516788</v>
       </c>
       <c r="I8">
-        <v>2.908925381665187</v>
+        <v>3.890029477839468</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.17338493208867</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.8883030715205</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.585134480934101</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.008289382712017</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.867791878529827</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.96016915134521</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77635781228673</v>
+        <v>23.67768952805763</v>
       </c>
       <c r="C9">
-        <v>21.51752086636726</v>
+        <v>15.23995443834544</v>
       </c>
       <c r="D9">
-        <v>11.09435833615976</v>
+        <v>3.817449475945785</v>
       </c>
       <c r="E9">
-        <v>33.24354161310295</v>
+        <v>7.146518023823951</v>
       </c>
       <c r="F9">
-        <v>70.89697344570428</v>
+        <v>29.08539323830392</v>
       </c>
       <c r="G9">
-        <v>2.053570185398751</v>
+        <v>38.58868397088672</v>
       </c>
       <c r="H9">
-        <v>3.877518438033591</v>
+        <v>2.765599635747543</v>
       </c>
       <c r="I9">
-        <v>3.818003966742009</v>
+        <v>3.398994970606265</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.48790134198692</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.98956539813167</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.229160852902311</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.137128882212125</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.306676746536629</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.4445985909144</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36896984993525</v>
+        <v>25.74148322775273</v>
       </c>
       <c r="C10">
-        <v>23.60291155827736</v>
+        <v>16.53921454099779</v>
       </c>
       <c r="D10">
-        <v>11.73454473692673</v>
+        <v>3.938795823903889</v>
       </c>
       <c r="E10">
-        <v>35.62103610224544</v>
+        <v>7.287652641489441</v>
       </c>
       <c r="F10">
-        <v>76.20990935265392</v>
+        <v>29.63525403788203</v>
       </c>
       <c r="G10">
-        <v>2.036709757866656</v>
+        <v>40.15347547424973</v>
       </c>
       <c r="H10">
-        <v>4.482358605421413</v>
+        <v>2.386480504750082</v>
       </c>
       <c r="I10">
-        <v>4.449622519871673</v>
+        <v>3.076459261801165</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.35502239675468</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.8311263742519</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.190265337889115</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.226329448073649</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.559494364732153</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.41424461712072</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.36121202343197</v>
+        <v>26.72455071772631</v>
       </c>
       <c r="C11">
-        <v>24.30366210427836</v>
+        <v>17.41270476980457</v>
       </c>
       <c r="D11">
-        <v>9.970562816033523</v>
+        <v>3.975392463759163</v>
       </c>
       <c r="E11">
-        <v>29.02521488677462</v>
+        <v>7.347062484171787</v>
       </c>
       <c r="F11">
-        <v>69.78476296936714</v>
+        <v>27.53219674629398</v>
       </c>
       <c r="G11">
-        <v>2.03570407727512</v>
+        <v>38.03051751772956</v>
       </c>
       <c r="H11">
-        <v>4.790747882991368</v>
+        <v>3.176125603881249</v>
       </c>
       <c r="I11">
-        <v>4.510909130059678</v>
+        <v>3.006382565988703</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.21837937500246</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.38655053002117</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.221637027891885</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.339680894455173</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.153154635330074</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.48488803493555</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68585877720369</v>
+        <v>27.13232549660404</v>
       </c>
       <c r="C12">
-        <v>24.44128593523203</v>
+        <v>17.87353342508025</v>
       </c>
       <c r="D12">
-        <v>8.470649040072542</v>
+        <v>3.958667690178787</v>
       </c>
       <c r="E12">
-        <v>23.0426619106675</v>
+        <v>7.479160970081942</v>
       </c>
       <c r="F12">
-        <v>63.59460163662632</v>
+        <v>25.81032824240502</v>
       </c>
       <c r="G12">
-        <v>2.037548408334782</v>
+        <v>35.83234453272293</v>
       </c>
       <c r="H12">
-        <v>5.512775492837027</v>
+        <v>4.433384830163538</v>
       </c>
       <c r="I12">
-        <v>4.456295562001463</v>
+        <v>2.988765343809564</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.52484839708903</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.36243779216612</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.240436694412043</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.485812017182519</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.759270915553352</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.33100112534979</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.52803904234584</v>
+        <v>27.14269034088388</v>
       </c>
       <c r="C13">
-        <v>24.22003956114179</v>
+        <v>18.11176411704456</v>
       </c>
       <c r="D13">
-        <v>7.009883965657012</v>
+        <v>3.899309777100248</v>
       </c>
       <c r="E13">
-        <v>17.05336036085701</v>
+        <v>7.671665134844257</v>
       </c>
       <c r="F13">
-        <v>56.73539812628097</v>
+        <v>24.24606356480586</v>
       </c>
       <c r="G13">
-        <v>2.041798004963339</v>
+        <v>33.14701508922822</v>
       </c>
       <c r="H13">
-        <v>6.450362237943956</v>
+        <v>5.798701609252952</v>
       </c>
       <c r="I13">
-        <v>4.308155851271346</v>
+        <v>3.026494471486224</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.16160743759041</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.57725868118482</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.236083730609767</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.656520901815807</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.357194959763918</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.99645427477096</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.20074615630609</v>
+        <v>26.96882191979204</v>
       </c>
       <c r="C14">
-        <v>23.91840789243268</v>
+        <v>18.18907478466614</v>
       </c>
       <c r="D14">
-        <v>6.025607134096393</v>
+        <v>3.841581602813027</v>
       </c>
       <c r="E14">
-        <v>12.91878041738623</v>
+        <v>7.84536333252827</v>
       </c>
       <c r="F14">
-        <v>51.49898527829699</v>
+        <v>23.20399646016457</v>
       </c>
       <c r="G14">
-        <v>2.045765259257151</v>
+        <v>31.02353168126526</v>
       </c>
       <c r="H14">
-        <v>7.201276089694248</v>
+        <v>6.784584134878379</v>
       </c>
       <c r="I14">
-        <v>4.16614545595082</v>
+        <v>3.081222018728148</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.02874414689535</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.13343462764955</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.223046277841992</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.791351676938416</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.077054551492681</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.67728021203433</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.01509405687257</v>
+        <v>26.83977043700599</v>
       </c>
       <c r="C15">
-        <v>23.77999269105106</v>
+        <v>18.16925785470588</v>
       </c>
       <c r="D15">
-        <v>5.778124340762592</v>
+        <v>3.821504325372312</v>
       </c>
       <c r="E15">
-        <v>11.90505057293832</v>
+        <v>7.886867221025446</v>
       </c>
       <c r="F15">
-        <v>49.98084492291337</v>
+        <v>22.96040562007884</v>
       </c>
       <c r="G15">
-        <v>2.047349627796285</v>
+        <v>30.38756992750674</v>
       </c>
       <c r="H15">
-        <v>7.37155626470092</v>
+        <v>7.017485740309402</v>
       </c>
       <c r="I15">
-        <v>4.109105430901421</v>
+        <v>3.111996985145101</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.04174853608407</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.05511409639016</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.215955209037012</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.821063625922793</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.007431172419698</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.56232376304776</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.98938299365462</v>
+        <v>26.0019257578336</v>
       </c>
       <c r="C16">
-        <v>23.00271204771266</v>
+        <v>17.68128221091953</v>
       </c>
       <c r="D16">
-        <v>5.728103560500506</v>
+        <v>3.759217164804312</v>
       </c>
       <c r="E16">
-        <v>11.57793924659197</v>
+        <v>7.79818105422668</v>
       </c>
       <c r="F16">
-        <v>48.56665406277664</v>
+        <v>23.1955717865829</v>
       </c>
       <c r="G16">
-        <v>2.053498711515744</v>
+        <v>29.70599630392988</v>
       </c>
       <c r="H16">
-        <v>7.055752869198356</v>
+        <v>6.848521017206719</v>
       </c>
       <c r="I16">
-        <v>3.877767251533557</v>
+        <v>3.243409739328248</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.48181473389154</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.37207028803109</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.18919409165283</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.742364750159717</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.974822421590031</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.20994014857958</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.36448092993919</v>
+        <v>25.44091036443596</v>
       </c>
       <c r="C17">
-        <v>22.55793443121987</v>
+        <v>17.24569019703441</v>
       </c>
       <c r="D17">
-        <v>6.19513540705</v>
+        <v>3.745150814925817</v>
       </c>
       <c r="E17">
-        <v>13.59355848671587</v>
+        <v>7.623324527262848</v>
       </c>
       <c r="F17">
-        <v>50.37157133274903</v>
+        <v>23.90119632955457</v>
       </c>
       <c r="G17">
-        <v>2.056209579269872</v>
+        <v>30.39702148991041</v>
       </c>
       <c r="H17">
-        <v>6.353811635908204</v>
+        <v>6.171789231752983</v>
       </c>
       <c r="I17">
-        <v>3.772518732282649</v>
+        <v>3.3168282832898</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.85878818817312</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.83334172770664</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.185292690534322</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.606331592866282</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.098258793562781</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.11300336787674</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.0326828153557</v>
+        <v>25.06685735943011</v>
       </c>
       <c r="C18">
-        <v>22.33313476896589</v>
+        <v>16.80362471424515</v>
       </c>
       <c r="D18">
-        <v>7.282784649532969</v>
+        <v>3.760582931665579</v>
       </c>
       <c r="E18">
-        <v>18.16992540045136</v>
+        <v>7.403747855061581</v>
       </c>
       <c r="F18">
-        <v>55.3707338003543</v>
+        <v>25.19656145791963</v>
       </c>
       <c r="G18">
-        <v>2.055887887705688</v>
+        <v>32.30368769467228</v>
       </c>
       <c r="H18">
-        <v>5.333293727927019</v>
+        <v>5.024966867110832</v>
       </c>
       <c r="I18">
-        <v>3.773529732633144</v>
+        <v>3.333951798550615</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.32406184249572</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.55731541671698</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.187684376799163</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.431214048499398</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.378466689448278</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.22252695278816</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.97345199471054</v>
+        <v>24.87459805096515</v>
       </c>
       <c r="C19">
-        <v>22.4033883500889</v>
+        <v>16.45364067393826</v>
       </c>
       <c r="D19">
-        <v>8.790375362995041</v>
+        <v>3.802186358954317</v>
       </c>
       <c r="E19">
-        <v>24.53208797344972</v>
+        <v>7.242344906405797</v>
       </c>
       <c r="F19">
-        <v>62.1806771869171</v>
+        <v>26.82070123169337</v>
       </c>
       <c r="G19">
-        <v>2.052752511625638</v>
+        <v>34.84813482894701</v>
       </c>
       <c r="H19">
-        <v>4.411514987705797</v>
+        <v>3.725358315708073</v>
       </c>
       <c r="I19">
-        <v>3.879578676368524</v>
+        <v>3.321998370872824</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.83979655084665</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.44304380230534</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.189292129626605</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.28262496006492</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.786900170786264</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.4916767531396</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.69820850587216</v>
+        <v>25.2115709511254</v>
       </c>
       <c r="C20">
-        <v>23.17917654727976</v>
+        <v>16.30714038148709</v>
       </c>
       <c r="D20">
-        <v>11.41151704201456</v>
+        <v>3.906117690462658</v>
       </c>
       <c r="E20">
-        <v>34.95363493126855</v>
+        <v>7.247753736358814</v>
       </c>
       <c r="F20">
-        <v>74.17869503357267</v>
+        <v>29.42475560885649</v>
       </c>
       <c r="G20">
-        <v>2.041462083656163</v>
+        <v>39.28712078831164</v>
       </c>
       <c r="H20">
-        <v>4.314225926561374</v>
+        <v>2.485364629984598</v>
       </c>
       <c r="I20">
-        <v>4.278525854025554</v>
+        <v>3.191587901140284</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.50681697868457</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.81238851913179</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.185228757141232</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.202972073228463</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.505971060865213</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.17405967331596</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.63458094084674</v>
+        <v>26.72456241902614</v>
       </c>
       <c r="C21">
-        <v>24.75784781552005</v>
+        <v>17.08017999053337</v>
       </c>
       <c r="D21">
-        <v>12.27927442675885</v>
+        <v>4.075855960608324</v>
       </c>
       <c r="E21">
-        <v>38.09980501401512</v>
+        <v>7.365352025851711</v>
       </c>
       <c r="F21">
-        <v>79.78419766314934</v>
+        <v>29.73785812391415</v>
       </c>
       <c r="G21">
-        <v>2.027249542232134</v>
+        <v>42.01769906438327</v>
       </c>
       <c r="H21">
-        <v>4.857352354950227</v>
+        <v>2.170510760215167</v>
       </c>
       <c r="I21">
-        <v>4.805519619189777</v>
+        <v>2.947214718237273</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.64746758927287</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.62822033013055</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.226689665585314</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.258738767214799</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.791320782525381</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.95580889083789</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.85232260185697</v>
+        <v>27.68236479919307</v>
       </c>
       <c r="C22">
-        <v>25.7093163221756</v>
+        <v>17.55209318852014</v>
       </c>
       <c r="D22">
-        <v>12.77195792536501</v>
+        <v>4.186334877364494</v>
       </c>
       <c r="E22">
-        <v>39.65220401541557</v>
+        <v>7.439649593408307</v>
       </c>
       <c r="F22">
-        <v>83.08140148289172</v>
+        <v>29.84865086757245</v>
       </c>
       <c r="G22">
-        <v>2.018208876805866</v>
+        <v>43.78301922332466</v>
       </c>
       <c r="H22">
-        <v>5.187829086509634</v>
+        <v>1.979843445001071</v>
       </c>
       <c r="I22">
-        <v>5.140100061090803</v>
+        <v>2.779683717507099</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.03820278152207</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.46100491092223</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.293962255525588</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.29657696424448</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.937514502120938</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.42461246598356</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.20893271165753</v>
+        <v>27.17720736729784</v>
       </c>
       <c r="C23">
-        <v>25.16305894123705</v>
+        <v>17.28873671794959</v>
       </c>
       <c r="D23">
-        <v>12.56410863771151</v>
+        <v>4.112429658531388</v>
       </c>
       <c r="E23">
-        <v>38.83252030482961</v>
+        <v>7.401760955816579</v>
       </c>
       <c r="F23">
-        <v>81.55397815487034</v>
+        <v>29.91583755892893</v>
       </c>
       <c r="G23">
-        <v>2.022918405131028</v>
+        <v>42.81307585434527</v>
       </c>
       <c r="H23">
-        <v>5.014325094539056</v>
+        <v>2.078663052860867</v>
       </c>
       <c r="I23">
-        <v>4.96347957896903</v>
+        <v>2.853723355752629</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.49435746855102</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.63422331758373</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.254461842829853</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.277971164926452</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.853673198483866</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.17134427879643</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.68185813993916</v>
+        <v>25.17906848557166</v>
       </c>
       <c r="C24">
-        <v>23.11238178875517</v>
+        <v>16.21729641567996</v>
       </c>
       <c r="D24">
-        <v>11.66976099974378</v>
+        <v>3.902193270232209</v>
       </c>
       <c r="E24">
-        <v>35.63223609375809</v>
+        <v>7.255309041583463</v>
       </c>
       <c r="F24">
-        <v>75.24053863113274</v>
+        <v>29.69036716759792</v>
       </c>
       <c r="G24">
-        <v>2.04088703992831</v>
+        <v>39.70053017697369</v>
       </c>
       <c r="H24">
-        <v>4.351378196554124</v>
+        <v>2.468306348453179</v>
       </c>
       <c r="I24">
-        <v>4.293550467567776</v>
+        <v>3.170280845405802</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.60142556951237</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.9875779700049</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.185243216919365</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.200872434475576</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.542003071264793</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.18763293212396</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.76275660477796</v>
+        <v>22.8759612253669</v>
       </c>
       <c r="C25">
-        <v>20.79094544270774</v>
+        <v>14.80289972826818</v>
       </c>
       <c r="D25">
-        <v>10.65831984704363</v>
+        <v>3.780997777405374</v>
       </c>
       <c r="E25">
-        <v>31.97679880725834</v>
+        <v>7.087139406812418</v>
       </c>
       <c r="F25">
-        <v>68.04404505137312</v>
+        <v>28.67830800861669</v>
       </c>
       <c r="G25">
-        <v>2.060308407478158</v>
+        <v>37.73147444890858</v>
       </c>
       <c r="H25">
-        <v>3.628166126820007</v>
+        <v>2.922281726506541</v>
       </c>
       <c r="I25">
-        <v>3.571692568677724</v>
+        <v>3.544713804529775</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.44209160356705</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.91667779401652</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.287061637976774</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.102679159719243</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.198870435563354</v>
       </c>
       <c r="Q25">
+        <v>14.06398989003793</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
